--- a/character_names.xlsx
+++ b/character_names.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Human" sheetId="1" r:id="rId1"/>
+    <sheet name="Dwarf" sheetId="2" r:id="rId2"/>
+    <sheet name="Elf" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +20,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,13 +70,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -331,12 +375,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/character_names.xlsx
+++ b/character_names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Human" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Ianven </t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Pankas</t>
+  </si>
+  <si>
+    <t>Hawklight</t>
+  </si>
+  <si>
+    <t>Jameak</t>
+  </si>
+  <si>
+    <t>Horian </t>
+  </si>
+  <si>
+    <t>Arroway</t>
+  </si>
+  <si>
+    <t>Yannic</t>
+  </si>
+  <si>
+    <t>Rondon </t>
+  </si>
+  <si>
+    <t>Stilltalon</t>
+  </si>
+  <si>
+    <t>Vardim</t>
+  </si>
+  <si>
+    <t>Vovodri</t>
+  </si>
+  <si>
+    <t>Urem </t>
+  </si>
+  <si>
+    <t>Glif </t>
+  </si>
+  <si>
+    <t>Stomurth </t>
+  </si>
+  <si>
+    <t>Zeidan</t>
+  </si>
+  <si>
+    <t>Jessun</t>
+  </si>
+  <si>
+    <t>Warhorn</t>
+  </si>
+  <si>
+    <t>Borvoc </t>
+  </si>
+  <si>
+    <t>Jendesca</t>
+  </si>
+  <si>
+    <t>Malbier </t>
+  </si>
+  <si>
+    <t>Warchaser</t>
+  </si>
+  <si>
+    <t>Netsk</t>
+  </si>
+  <si>
+    <t>Turth </t>
+  </si>
+  <si>
+    <t>Nasad </t>
+  </si>
+  <si>
+    <t>Zoke</t>
+  </si>
+  <si>
+    <t>Vennan </t>
+  </si>
+  <si>
+    <t>Gerrell</t>
+  </si>
+  <si>
+    <t>Brod</t>
+  </si>
+  <si>
+    <t>Tiran</t>
+  </si>
+  <si>
+    <t>Baudric</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>D'anton</t>
+  </si>
+  <si>
+    <t>Werner</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Kade</t>
+  </si>
+  <si>
+    <t>Perrin</t>
+  </si>
+  <si>
+    <t>Olva</t>
+  </si>
+  <si>
+    <t>Serilda</t>
+  </si>
+  <si>
+    <t>Lera </t>
+  </si>
+  <si>
+    <t>Kima </t>
+  </si>
+  <si>
+    <t>Yai</t>
+  </si>
+  <si>
+    <t>Sarai</t>
+  </si>
+  <si>
+    <t>Sydnie</t>
+  </si>
+  <si>
+    <t>Bria</t>
+  </si>
+  <si>
+    <t>Urith</t>
+  </si>
+  <si>
+    <t>Imke</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Myrla</t>
+  </si>
+  <si>
+    <t>Undine</t>
+  </si>
+  <si>
+    <t>Gwendolyn</t>
+  </si>
+  <si>
+    <t>Seraphin</t>
+  </si>
+  <si>
+    <t>Evette</t>
+  </si>
+  <si>
+    <t>Aracely</t>
+  </si>
+  <si>
+    <t>Jaida</t>
+  </si>
+  <si>
+    <t>Alwera</t>
+  </si>
+  <si>
+    <t>Marissa</t>
+  </si>
+  <si>
+    <t>Yolanda</t>
+  </si>
+  <si>
+    <t>Saffron</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Samara</t>
+  </si>
+  <si>
+    <t>Graytide</t>
+  </si>
+  <si>
+    <t>Javrik</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Windhell</t>
+  </si>
+  <si>
+    <t>Bhulan</t>
+  </si>
+  <si>
+    <t>Kaim</t>
+  </si>
+  <si>
+    <t>Goldbrooke</t>
+  </si>
+  <si>
+    <t>Lowhide</t>
+  </si>
+  <si>
+    <t>Chuan</t>
+  </si>
+  <si>
+    <t>Rask</t>
+  </si>
+  <si>
+    <t>Cahlon</t>
+  </si>
+  <si>
+    <t>Dukhad</t>
+  </si>
+  <si>
+    <t>Blackeye</t>
   </si>
 </sst>
 </file>
@@ -58,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -66,40 +294,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -375,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:C21"/>
+      <selection activeCell="B3" sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,112 +750,366 @@
     <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -503,121 +1120,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,123 +1347,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/character_names.xlsx
+++ b/character_names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Human" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="Lists" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="991">
   <si>
     <t>Male</t>
   </si>
@@ -1434,6 +1433,1569 @@
   </si>
   <si>
     <t>Namfoodle</t>
+  </si>
+  <si>
+    <t>Maras</t>
+  </si>
+  <si>
+    <t>Sortar</t>
+  </si>
+  <si>
+    <t>Zikres</t>
+  </si>
+  <si>
+    <t>Veloldrak</t>
+  </si>
+  <si>
+    <t>Sebragat</t>
+  </si>
+  <si>
+    <t>Amrath</t>
+  </si>
+  <si>
+    <t>Zorak</t>
+  </si>
+  <si>
+    <t>Yetirnath</t>
+  </si>
+  <si>
+    <t>Aste</t>
+  </si>
+  <si>
+    <t>Tonarre</t>
+  </si>
+  <si>
+    <t>Dadru</t>
+  </si>
+  <si>
+    <t>Memnon</t>
+  </si>
+  <si>
+    <t>Kredi</t>
+  </si>
+  <si>
+    <t>Emmod</t>
+  </si>
+  <si>
+    <t>Zarzis</t>
+  </si>
+  <si>
+    <t>Dolraarres</t>
+  </si>
+  <si>
+    <t>Dagra</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Betath</t>
+  </si>
+  <si>
+    <t>Idyloc</t>
+  </si>
+  <si>
+    <t>Uruskos</t>
+  </si>
+  <si>
+    <t>Ylian</t>
+  </si>
+  <si>
+    <t>Atocam</t>
+  </si>
+  <si>
+    <t>Pateth</t>
+  </si>
+  <si>
+    <t>Sakiath</t>
+  </si>
+  <si>
+    <t>Hassaan</t>
+  </si>
+  <si>
+    <t>Degge</t>
+  </si>
+  <si>
+    <t>Yerno</t>
+  </si>
+  <si>
+    <t>Enveth</t>
+  </si>
+  <si>
+    <t>Zaenvate</t>
+  </si>
+  <si>
+    <t>Rullu</t>
+  </si>
+  <si>
+    <t>Hiorveth</t>
+  </si>
+  <si>
+    <t>Lobames</t>
+  </si>
+  <si>
+    <t>Vasosa</t>
+  </si>
+  <si>
+    <t>Dritea</t>
+  </si>
+  <si>
+    <t>Meret</t>
+  </si>
+  <si>
+    <t>Zaldrith</t>
+  </si>
+  <si>
+    <t>Itraneth</t>
+  </si>
+  <si>
+    <t>Zyrtir</t>
+  </si>
+  <si>
+    <t>Sevoce</t>
+  </si>
+  <si>
+    <t>Verrdoth</t>
+  </si>
+  <si>
+    <t>Unvet</t>
+  </si>
+  <si>
+    <t>Dunarkic</t>
+  </si>
+  <si>
+    <t>Rinriarkan</t>
+  </si>
+  <si>
+    <t>Akal</t>
+  </si>
+  <si>
+    <t>Utrelun</t>
+  </si>
+  <si>
+    <t>Yotuggoth</t>
+  </si>
+  <si>
+    <t>Bamor</t>
+  </si>
+  <si>
+    <t>Tigris</t>
+  </si>
+  <si>
+    <t>Elvaka</t>
+  </si>
+  <si>
+    <t>Rokrulek</t>
+  </si>
+  <si>
+    <t>Necaade</t>
+  </si>
+  <si>
+    <t>Daedrun</t>
+  </si>
+  <si>
+    <t>Hadanveam</t>
+  </si>
+  <si>
+    <t>Mesilt</t>
+  </si>
+  <si>
+    <t>Rudrur</t>
+  </si>
+  <si>
+    <t>Asak</t>
+  </si>
+  <si>
+    <t>Yirke</t>
+  </si>
+  <si>
+    <t>Krioskit</t>
+  </si>
+  <si>
+    <t>Sheromas</t>
+  </si>
+  <si>
+    <t>Zarogot</t>
+  </si>
+  <si>
+    <t>Norzoth</t>
+  </si>
+  <si>
+    <t>Dravidith</t>
+  </si>
+  <si>
+    <t>Abeld</t>
+  </si>
+  <si>
+    <t>Tigva</t>
+  </si>
+  <si>
+    <t>Irzes</t>
+  </si>
+  <si>
+    <t>Tesrae</t>
+  </si>
+  <si>
+    <t>Eldraes</t>
+  </si>
+  <si>
+    <t>Agveni</t>
+  </si>
+  <si>
+    <t>Loyanil</t>
+  </si>
+  <si>
+    <t>Thamas</t>
+  </si>
+  <si>
+    <t>Rida</t>
+  </si>
+  <si>
+    <t>Zera</t>
+  </si>
+  <si>
+    <t>Llameth</t>
+  </si>
+  <si>
+    <t>Yremeth</t>
+  </si>
+  <si>
+    <t>Mersath</t>
+  </si>
+  <si>
+    <t>Nindras</t>
+  </si>
+  <si>
+    <t>Khiadetos</t>
+  </si>
+  <si>
+    <t>Lannas</t>
+  </si>
+  <si>
+    <t>Thafron</t>
+  </si>
+  <si>
+    <t>Kheildath</t>
+  </si>
+  <si>
+    <t>Dinasel</t>
+  </si>
+  <si>
+    <t>Vonrosid</t>
+  </si>
+  <si>
+    <t>Bridria</t>
+  </si>
+  <si>
+    <t>Aesias</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Vaken</t>
+  </si>
+  <si>
+    <t>Marzet</t>
+  </si>
+  <si>
+    <t>Illitaar</t>
+  </si>
+  <si>
+    <t>Naimith</t>
+  </si>
+  <si>
+    <t>Sheiral</t>
+  </si>
+  <si>
+    <t>Shatradan</t>
+  </si>
+  <si>
+    <t>Viteyin</t>
+  </si>
+  <si>
+    <t>Ovrea</t>
+  </si>
+  <si>
+    <t>Alekad</t>
+  </si>
+  <si>
+    <t>Limmos</t>
+  </si>
+  <si>
+    <t>Tare</t>
+  </si>
+  <si>
+    <t>Forim</t>
+  </si>
+  <si>
+    <t>Illind</t>
+  </si>
+  <si>
+    <t>Zatrena</t>
+  </si>
+  <si>
+    <t>Talorith</t>
+  </si>
+  <si>
+    <t>Kisal</t>
+  </si>
+  <si>
+    <t>Zeyafis</t>
+  </si>
+  <si>
+    <t>Ketrin</t>
+  </si>
+  <si>
+    <t>Etros</t>
+  </si>
+  <si>
+    <t>Shangoth</t>
+  </si>
+  <si>
+    <t>Ledrath</t>
+  </si>
+  <si>
+    <t>Garvat</t>
+  </si>
+  <si>
+    <t>Fevih</t>
+  </si>
+  <si>
+    <t>Deifin</t>
+  </si>
+  <si>
+    <t>Bibet</t>
+  </si>
+  <si>
+    <t>Instigaard</t>
+  </si>
+  <si>
+    <t>Tiviald</t>
+  </si>
+  <si>
+    <t>Sondem</t>
+  </si>
+  <si>
+    <t>Hayel</t>
+  </si>
+  <si>
+    <t>Sivas</t>
+  </si>
+  <si>
+    <t>Sheital</t>
+  </si>
+  <si>
+    <t>Medorsei</t>
+  </si>
+  <si>
+    <t>Ririh</t>
+  </si>
+  <si>
+    <t>Filith</t>
+  </si>
+  <si>
+    <t>Sialas</t>
+  </si>
+  <si>
+    <t>Tenometh</t>
+  </si>
+  <si>
+    <t>Khaten</t>
+  </si>
+  <si>
+    <t>Voyith</t>
+  </si>
+  <si>
+    <t>Loffoth</t>
+  </si>
+  <si>
+    <t>Inar</t>
+  </si>
+  <si>
+    <t>Yilenos</t>
+  </si>
+  <si>
+    <t>Ores</t>
+  </si>
+  <si>
+    <t>Althos</t>
+  </si>
+  <si>
+    <t>Galvron</t>
+  </si>
+  <si>
+    <t>Indramas</t>
+  </si>
+  <si>
+    <t>Lile</t>
+  </si>
+  <si>
+    <t>Jastra</t>
+  </si>
+  <si>
+    <t>Edea</t>
+  </si>
+  <si>
+    <t>Aerilaya</t>
+  </si>
+  <si>
+    <t>Seldanna</t>
+  </si>
+  <si>
+    <t>Nimue</t>
+  </si>
+  <si>
+    <t>Ralora</t>
+  </si>
+  <si>
+    <t>Faesys</t>
+  </si>
+  <si>
+    <t>Myriani</t>
+  </si>
+  <si>
+    <t>Amaruil</t>
+  </si>
+  <si>
+    <t>Quamara</t>
+  </si>
+  <si>
+    <t>Nithroel</t>
+  </si>
+  <si>
+    <t>Enyarus</t>
+  </si>
+  <si>
+    <t>Cilivren</t>
+  </si>
+  <si>
+    <t>Elora</t>
+  </si>
+  <si>
+    <t>Aerith</t>
+  </si>
+  <si>
+    <t>Alvaerele</t>
+  </si>
+  <si>
+    <t>Ilmadia</t>
+  </si>
+  <si>
+    <t>Orimys</t>
+  </si>
+  <si>
+    <t>Sha'lai</t>
+  </si>
+  <si>
+    <t>Trawarin</t>
+  </si>
+  <si>
+    <t>Perthyra</t>
+  </si>
+  <si>
+    <t>Kelsatra</t>
+  </si>
+  <si>
+    <t>Jotoris</t>
+  </si>
+  <si>
+    <t>Viessa</t>
+  </si>
+  <si>
+    <t>Zentha</t>
+  </si>
+  <si>
+    <t>Haera</t>
+  </si>
+  <si>
+    <t>Bemere</t>
+  </si>
+  <si>
+    <t>Leora</t>
+  </si>
+  <si>
+    <t>Pethana</t>
+  </si>
+  <si>
+    <t>Jodan</t>
+  </si>
+  <si>
+    <t>Norralei</t>
+  </si>
+  <si>
+    <t>Riniya</t>
+  </si>
+  <si>
+    <t>Cyithrel</t>
+  </si>
+  <si>
+    <t>Llamryl</t>
+  </si>
+  <si>
+    <t>Aravae</t>
+  </si>
+  <si>
+    <t>Wynris</t>
+  </si>
+  <si>
+    <t>Sylnelis</t>
+  </si>
+  <si>
+    <t>Wyninn</t>
+  </si>
+  <si>
+    <t>Jassin</t>
+  </si>
+  <si>
+    <t>Hagmer</t>
+  </si>
+  <si>
+    <t>Ilphas</t>
+  </si>
+  <si>
+    <t>Selanlar</t>
+  </si>
+  <si>
+    <t>Urira</t>
+  </si>
+  <si>
+    <t>Orisalor</t>
+  </si>
+  <si>
+    <t>Miranar</t>
+  </si>
+  <si>
+    <t>Elas</t>
+  </si>
+  <si>
+    <t>Nopos</t>
+  </si>
+  <si>
+    <t>Raeranthur</t>
+  </si>
+  <si>
+    <t>Abarat</t>
+  </si>
+  <si>
+    <t>Lamruil</t>
+  </si>
+  <si>
+    <t>Rydel</t>
+  </si>
+  <si>
+    <t>Vulmer</t>
+  </si>
+  <si>
+    <t>Ettrian</t>
+  </si>
+  <si>
+    <t>Taenaran</t>
+  </si>
+  <si>
+    <t>Delmuth</t>
+  </si>
+  <si>
+    <t>Sylven</t>
+  </si>
+  <si>
+    <t>Rokalyn</t>
+  </si>
+  <si>
+    <t>Phisys</t>
+  </si>
+  <si>
+    <t>Sarenys</t>
+  </si>
+  <si>
+    <t>Almar</t>
+  </si>
+  <si>
+    <t>Ethlando</t>
+  </si>
+  <si>
+    <t>Orrian</t>
+  </si>
+  <si>
+    <t>Kiirion</t>
+  </si>
+  <si>
+    <t>Syltris</t>
+  </si>
+  <si>
+    <t>Nerixia</t>
+  </si>
+  <si>
+    <t>Sharieth</t>
+  </si>
+  <si>
+    <t>Venceran</t>
+  </si>
+  <si>
+    <t>Anore</t>
+  </si>
+  <si>
+    <t>Enzana</t>
+  </si>
+  <si>
+    <t>Zum'leth</t>
+  </si>
+  <si>
+    <t>Nerilana</t>
+  </si>
+  <si>
+    <t>Olaran</t>
+  </si>
+  <si>
+    <t>Ilikian</t>
+  </si>
+  <si>
+    <t>Gilleth</t>
+  </si>
+  <si>
+    <t>Ernorin</t>
+  </si>
+  <si>
+    <t>Farnala</t>
+  </si>
+  <si>
+    <t>Cardan</t>
+  </si>
+  <si>
+    <t>Glynven</t>
+  </si>
+  <si>
+    <t>Faxalim</t>
+  </si>
+  <si>
+    <t>Parieth</t>
+  </si>
+  <si>
+    <t>Proudfoot</t>
+  </si>
+  <si>
+    <t>Brandybuck</t>
+  </si>
+  <si>
+    <t>Goldgrass</t>
+  </si>
+  <si>
+    <t>Hornwood</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>Farfoot</t>
+  </si>
+  <si>
+    <t>Boulderhill</t>
+  </si>
+  <si>
+    <t>Maraic</t>
+  </si>
+  <si>
+    <t>Odulf</t>
+  </si>
+  <si>
+    <t>Briffo</t>
+  </si>
+  <si>
+    <t>Corbus</t>
+  </si>
+  <si>
+    <t>Bercilac</t>
+  </si>
+  <si>
+    <t>Athanaric</t>
+  </si>
+  <si>
+    <t>Folco</t>
+  </si>
+  <si>
+    <t>Featherbottom</t>
+  </si>
+  <si>
+    <t>Underburrow</t>
+  </si>
+  <si>
+    <t>Oldbuck</t>
+  </si>
+  <si>
+    <t>Silvermead</t>
+  </si>
+  <si>
+    <t>Goldworthy</t>
+  </si>
+  <si>
+    <t>Littlefoot</t>
+  </si>
+  <si>
+    <t>Baggins</t>
+  </si>
+  <si>
+    <t>Bramblethorn</t>
+  </si>
+  <si>
+    <t>Elvellon</t>
+  </si>
+  <si>
+    <t>Roper</t>
+  </si>
+  <si>
+    <t>Proudbody</t>
+  </si>
+  <si>
+    <t>Goodsong</t>
+  </si>
+  <si>
+    <t>Pott</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Adelheid</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Rosie</t>
+  </si>
+  <si>
+    <t>Leafwalker</t>
+  </si>
+  <si>
+    <t>Clayhanger</t>
+  </si>
+  <si>
+    <t>Tomburan</t>
+  </si>
+  <si>
+    <t>Farro</t>
+  </si>
+  <si>
+    <t>Charibert</t>
+  </si>
+  <si>
+    <t>Fosco</t>
+  </si>
+  <si>
+    <t>Ebroin</t>
+  </si>
+  <si>
+    <t>Elfstan</t>
+  </si>
+  <si>
+    <t>Knotwise</t>
+  </si>
+  <si>
+    <t>Puddlefoot</t>
+  </si>
+  <si>
+    <t>Underlake</t>
+  </si>
+  <si>
+    <t>Bosco</t>
+  </si>
+  <si>
+    <t>Hamfast</t>
+  </si>
+  <si>
+    <t>Allowin</t>
+  </si>
+  <si>
+    <t>Gamgee</t>
+  </si>
+  <si>
+    <t>Wanderfoot</t>
+  </si>
+  <si>
+    <t>Brandywood</t>
+  </si>
+  <si>
+    <t>Burrows</t>
+  </si>
+  <si>
+    <t>Sandyman</t>
+  </si>
+  <si>
+    <t>Lothran</t>
+  </si>
+  <si>
+    <t>Longriver</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Otker</t>
+  </si>
+  <si>
+    <t>Malaric</t>
+  </si>
+  <si>
+    <t>Hayward</t>
+  </si>
+  <si>
+    <t>Lightfoot</t>
+  </si>
+  <si>
+    <t>Brownlock</t>
+  </si>
+  <si>
+    <t>Jago</t>
+  </si>
+  <si>
+    <t>Wilibald</t>
+  </si>
+  <si>
+    <t>Hob</t>
+  </si>
+  <si>
+    <t>Rollo</t>
+  </si>
+  <si>
+    <t>Cassyon</t>
+  </si>
+  <si>
+    <t>Burchard</t>
+  </si>
+  <si>
+    <t>Bolger</t>
+  </si>
+  <si>
+    <t>Stumbletoe</t>
+  </si>
+  <si>
+    <t>Longhole</t>
+  </si>
+  <si>
+    <t>Godomar</t>
+  </si>
+  <si>
+    <t>Cerdic</t>
+  </si>
+  <si>
+    <t>Marroc</t>
+  </si>
+  <si>
+    <t>Ratold</t>
+  </si>
+  <si>
+    <t>Lefred</t>
+  </si>
+  <si>
+    <t>Puvis</t>
+  </si>
+  <si>
+    <t>Meriadoc</t>
+  </si>
+  <si>
+    <t>Arnulf</t>
+  </si>
+  <si>
+    <t>Ellie</t>
+  </si>
+  <si>
+    <t>Itta</t>
+  </si>
+  <si>
+    <t>Alura</t>
+  </si>
+  <si>
+    <t>Ealswid</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Greenhill</t>
+  </si>
+  <si>
+    <t>Silverstring</t>
+  </si>
+  <si>
+    <t>Scarlet</t>
+  </si>
+  <si>
+    <t>Berthe</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Gisela</t>
+  </si>
+  <si>
+    <t>Rosamund</t>
+  </si>
+  <si>
+    <t>Amalda</t>
+  </si>
+  <si>
+    <t>Berylla</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Aude</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Tavia</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Marigold</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>Basina</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Kymma</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Primrose</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Darkguard</t>
+  </si>
+  <si>
+    <t>Blackfist</t>
+  </si>
+  <si>
+    <t>Thuric</t>
+  </si>
+  <si>
+    <t>Warfury</t>
+  </si>
+  <si>
+    <t>Nightguard</t>
+  </si>
+  <si>
+    <t>Stoutmantle</t>
+  </si>
+  <si>
+    <t>Blunthorn</t>
+  </si>
+  <si>
+    <t>Runethane</t>
+  </si>
+  <si>
+    <t>Graycoat</t>
+  </si>
+  <si>
+    <t>Forgeheart</t>
+  </si>
+  <si>
+    <t>Borri</t>
+  </si>
+  <si>
+    <t>Gloin</t>
+  </si>
+  <si>
+    <t>Embermain</t>
+  </si>
+  <si>
+    <t>Iceheart</t>
+  </si>
+  <si>
+    <t>Icemail</t>
+  </si>
+  <si>
+    <t>Barrelpike</t>
+  </si>
+  <si>
+    <t>Kazit</t>
+  </si>
+  <si>
+    <t>Dagrat</t>
+  </si>
+  <si>
+    <t>Gramdim</t>
+  </si>
+  <si>
+    <t>Vogrec</t>
+  </si>
+  <si>
+    <t>Dhunmor</t>
+  </si>
+  <si>
+    <t>Muzuli</t>
+  </si>
+  <si>
+    <t>Ironriver</t>
+  </si>
+  <si>
+    <t>Amberhead</t>
+  </si>
+  <si>
+    <t>Brownhide</t>
+  </si>
+  <si>
+    <t>Trollfury</t>
+  </si>
+  <si>
+    <t>Goldforge</t>
+  </si>
+  <si>
+    <t>Sunderwind</t>
+  </si>
+  <si>
+    <t>Stonebreaker</t>
+  </si>
+  <si>
+    <t>Warmaul</t>
+  </si>
+  <si>
+    <t>Beastborn</t>
+  </si>
+  <si>
+    <t>Platechin</t>
+  </si>
+  <si>
+    <t>Botrid</t>
+  </si>
+  <si>
+    <t>Hakreck</t>
+  </si>
+  <si>
+    <t>Damumlin</t>
+  </si>
+  <si>
+    <t>Nengruri</t>
+  </si>
+  <si>
+    <t>Bonmal</t>
+  </si>
+  <si>
+    <t>Brumuck</t>
+  </si>
+  <si>
+    <t>Dutoth</t>
+  </si>
+  <si>
+    <t>Fommoli</t>
+  </si>
+  <si>
+    <t>Greatgut</t>
+  </si>
+  <si>
+    <t>Ashmaul</t>
+  </si>
+  <si>
+    <t>Ironborn</t>
+  </si>
+  <si>
+    <t>Forgebelt</t>
+  </si>
+  <si>
+    <t>Bonehelm</t>
+  </si>
+  <si>
+    <t>Bitterheart</t>
+  </si>
+  <si>
+    <t>Botir</t>
+  </si>
+  <si>
+    <t>Coinmaster</t>
+  </si>
+  <si>
+    <t>Grimbraid</t>
+  </si>
+  <si>
+    <t>Stonearm</t>
+  </si>
+  <si>
+    <t>Steeltoe</t>
+  </si>
+  <si>
+    <t>Goldenbraid</t>
+  </si>
+  <si>
+    <t>Runehelm</t>
+  </si>
+  <si>
+    <t>Elsgrak</t>
+  </si>
+  <si>
+    <t>Branolin</t>
+  </si>
+  <si>
+    <t>Nobik</t>
+  </si>
+  <si>
+    <t>Gladgreth</t>
+  </si>
+  <si>
+    <t>Normoni</t>
+  </si>
+  <si>
+    <t>Barnys</t>
+  </si>
+  <si>
+    <t>Marbelle</t>
+  </si>
+  <si>
+    <t>Elnan</t>
+  </si>
+  <si>
+    <t>Braentyn</t>
+  </si>
+  <si>
+    <t>Gwensael</t>
+  </si>
+  <si>
+    <t>Lysnia</t>
+  </si>
+  <si>
+    <t>Myrnera</t>
+  </si>
+  <si>
+    <t>Tyshgwyn</t>
+  </si>
+  <si>
+    <t>Myrthel</t>
+  </si>
+  <si>
+    <t>Randeth</t>
+  </si>
+  <si>
+    <t>Lasri</t>
+  </si>
+  <si>
+    <t>Anlynn</t>
+  </si>
+  <si>
+    <t>Bellenora</t>
+  </si>
+  <si>
+    <t>Brallyn</t>
+  </si>
+  <si>
+    <t>Mistthiel</t>
+  </si>
+  <si>
+    <t>Brilnia</t>
+  </si>
+  <si>
+    <t>Bretlinn</t>
+  </si>
+  <si>
+    <t>Gwynva</t>
+  </si>
+  <si>
+    <t>Tazris</t>
+  </si>
+  <si>
+    <t>Branva</t>
+  </si>
+  <si>
+    <t>Elrielle</t>
+  </si>
+  <si>
+    <t>Marthel</t>
+  </si>
+  <si>
+    <t>Tysryn</t>
+  </si>
+  <si>
+    <t>Leslinn</t>
+  </si>
+  <si>
+    <t>Jinra</t>
+  </si>
+  <si>
+    <t>Jennryn</t>
+  </si>
+  <si>
+    <t>Ceridwyn</t>
+  </si>
+  <si>
+    <t>Bonras</t>
+  </si>
+  <si>
+    <t>Gemnyl</t>
+  </si>
+  <si>
+    <t>Bryndyl</t>
+  </si>
+  <si>
+    <t>Jennris</t>
+  </si>
+  <si>
+    <t>Braddelyn</t>
+  </si>
+  <si>
+    <t>Tordille</t>
+  </si>
+  <si>
+    <t>Naervian</t>
+  </si>
+  <si>
+    <t>Misadea</t>
+  </si>
+  <si>
+    <t>Beramma</t>
+  </si>
+  <si>
+    <t>Sabelsha</t>
+  </si>
+  <si>
+    <t>Sisina</t>
+  </si>
+  <si>
+    <t>Sinai</t>
+  </si>
+  <si>
+    <t>Abilgar</t>
+  </si>
+  <si>
+    <t>Amezzesh</t>
+  </si>
+  <si>
+    <t>Harsusu</t>
+  </si>
+  <si>
+    <t>Amzuus</t>
+  </si>
+  <si>
+    <t>Abumus</t>
+  </si>
+  <si>
+    <t>Bieshazi</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Olamum</t>
+  </si>
+  <si>
+    <t>Amurrum</t>
+  </si>
+  <si>
+    <t>Enkitad</t>
+  </si>
+  <si>
+    <t>Harsuma</t>
+  </si>
+  <si>
+    <t>Samula</t>
+  </si>
+  <si>
+    <t>Ergaram</t>
+  </si>
+  <si>
+    <t>Sinunna</t>
+  </si>
+  <si>
+    <t>Ammukar</t>
+  </si>
+  <si>
+    <t>Gilga</t>
+  </si>
+  <si>
+    <t>Anubtiyan</t>
+  </si>
+  <si>
+    <t>Meshadni</t>
+  </si>
+  <si>
+    <t>Ebadner</t>
+  </si>
+  <si>
+    <t>Sumana</t>
+  </si>
+  <si>
+    <t>Aburiar</t>
+  </si>
+  <si>
+    <t>Ninai</t>
+  </si>
+  <si>
+    <t>Attes</t>
+  </si>
+  <si>
+    <t>Amsum</t>
+  </si>
+  <si>
+    <t>Taani</t>
+  </si>
+  <si>
+    <t>Nezzu</t>
+  </si>
+  <si>
+    <t>Azzamuh</t>
+  </si>
+  <si>
+    <t>Ditani</t>
+  </si>
+  <si>
+    <t>Ninki</t>
+  </si>
+  <si>
+    <t>Nocri</t>
+  </si>
+  <si>
+    <t>Anum</t>
+  </si>
+  <si>
+    <t>Saba</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Litta</t>
+  </si>
+  <si>
+    <t>Nisab</t>
+  </si>
+  <si>
+    <t>Puabi</t>
+  </si>
+  <si>
+    <t>Myla</t>
+  </si>
+  <si>
+    <t>Inal</t>
+  </si>
+  <si>
+    <t>Nidur</t>
+  </si>
+  <si>
+    <t>Artetu</t>
+  </si>
+  <si>
+    <t>Nisid</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>Ilit</t>
+  </si>
+  <si>
+    <t>Ammetu</t>
+  </si>
+  <si>
+    <t>Ayanum</t>
+  </si>
+  <si>
+    <t>Ayastal</t>
+  </si>
+  <si>
+    <t>Sidab</t>
+  </si>
+  <si>
+    <t>Ningal</t>
+  </si>
+  <si>
+    <t>Astal</t>
+  </si>
+  <si>
+    <t>Ilis</t>
+  </si>
+  <si>
+    <t>Golurtz</t>
+  </si>
+  <si>
+    <t>Uzgag</t>
+  </si>
+  <si>
+    <t>Lurtzog</t>
+  </si>
+  <si>
+    <t>Lugdush</t>
+  </si>
+  <si>
+    <t>Muzga</t>
+  </si>
+  <si>
+    <t>Shakil</t>
+  </si>
+  <si>
+    <t>Golfimb</t>
+  </si>
+  <si>
+    <t>Baga</t>
+  </si>
+  <si>
+    <t>Bolduf</t>
+  </si>
+  <si>
+    <t>Balcmuzg</t>
+  </si>
+  <si>
+    <t>Agal</t>
+  </si>
+  <si>
+    <t>Orcod</t>
+  </si>
+  <si>
+    <t>Obak</t>
+  </si>
+  <si>
+    <t>Lagduf</t>
+  </si>
+  <si>
+    <t>Gashagr</t>
+  </si>
+  <si>
+    <t>Gashur</t>
+  </si>
+  <si>
+    <t>Luga</t>
+  </si>
+  <si>
+    <t>Uglurtz</t>
+  </si>
+  <si>
+    <t>Buluk</t>
+  </si>
+  <si>
+    <t>Gorkil</t>
+  </si>
+  <si>
+    <t>Lukil</t>
+  </si>
+  <si>
+    <t>Obat</t>
+  </si>
+  <si>
+    <t>Ugdug</t>
+  </si>
+  <si>
+    <t>Balcmeg</t>
+  </si>
+  <si>
+    <t>Agdur</t>
+  </si>
+  <si>
+    <t>Ufthakh</t>
+  </si>
+  <si>
+    <t>Boldog</t>
+  </si>
+  <si>
+    <t>Snaga</t>
+  </si>
+  <si>
+    <t>Obag</t>
+  </si>
+  <si>
+    <t>Gorga</t>
+  </si>
+  <si>
+    <t>Mauhagr</t>
+  </si>
+  <si>
+    <t>Uhush</t>
+  </si>
+  <si>
+    <t>Lugdog</t>
+  </si>
+  <si>
+    <t>Grishnag</t>
+  </si>
+  <si>
+    <t>Gashak</t>
+  </si>
+  <si>
+    <t>Lurbuk</t>
+  </si>
+  <si>
+    <t>Balagog</t>
+  </si>
+  <si>
+    <t>Borkul</t>
+  </si>
+  <si>
+    <t>Burguk</t>
+  </si>
+  <si>
+    <t>Durak</t>
+  </si>
+  <si>
+    <t>Ghamorz</t>
+  </si>
+  <si>
+    <t>Ghunzul</t>
+  </si>
+  <si>
+    <t>Kharag</t>
+  </si>
+  <si>
+    <t>Malkus</t>
+  </si>
+  <si>
+    <t>Nagrub</t>
+  </si>
+  <si>
+    <t>Ogol</t>
+  </si>
+  <si>
+    <t>Ulag</t>
+  </si>
+  <si>
+    <t>Urag</t>
+  </si>
+  <si>
+    <t>Buramog</t>
+  </si>
+  <si>
+    <t>Shagol</t>
+  </si>
+  <si>
+    <t>Morbash</t>
+  </si>
+  <si>
+    <t>Narazz</t>
+  </si>
+  <si>
+    <t>Yzzgol</t>
+  </si>
+  <si>
+    <t>Ulgha</t>
+  </si>
+  <si>
+    <t>Zugrak</t>
+  </si>
+  <si>
+    <t>Zikgor</t>
+  </si>
+  <si>
+    <t>Bugrog</t>
+  </si>
+  <si>
+    <t>Khurza</t>
   </si>
 </sst>
 </file>
@@ -1991,6 +3553,16 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2058,6 +3630,16 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2122,6 +3704,16 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2318,36 +3910,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2362,56 +3924,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="44">
   <autoFilter ref="A1:D51"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numbers" dataDxfId="31"/>
-    <tableColumn id="2" name="Male" dataDxfId="30"/>
-    <tableColumn id="3" name="Female" dataDxfId="29"/>
-    <tableColumn id="4" name="Last Name" dataDxfId="28"/>
+    <tableColumn id="1" name="Numbers" dataDxfId="11"/>
+    <tableColumn id="2" name="Male" dataDxfId="10"/>
+    <tableColumn id="3" name="Female" dataDxfId="9"/>
+    <tableColumn id="4" name="Last Name" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table48" displayName="Table48" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="42">
-  <autoFilter ref="A1:D51"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numbers" dataDxfId="27"/>
-    <tableColumn id="2" name="Male" dataDxfId="26"/>
-    <tableColumn id="3" name="Female" dataDxfId="25"/>
-    <tableColumn id="4" name="Last Name" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table412" displayName="Table412" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="41">
-  <autoFilter ref="A1:D51"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numbers" dataDxfId="23"/>
-    <tableColumn id="2" name="Male" dataDxfId="22"/>
-    <tableColumn id="3" name="Female" dataDxfId="21"/>
-    <tableColumn id="4" name="Last Name" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table410" displayName="Table410" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="43">
-  <autoFilter ref="A1:D51"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numbers" dataDxfId="19"/>
-    <tableColumn id="2" name="Male" dataDxfId="18"/>
-    <tableColumn id="3" name="Female" dataDxfId="17"/>
-    <tableColumn id="4" name="Last Name" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table41013" displayName="Table41013" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table48" displayName="Table48" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="43">
   <autoFilter ref="A1:D51"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numbers" dataDxfId="15"/>
@@ -2423,34 +3946,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table4101315" displayName="Table4101315" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="38">
-  <autoFilter ref="A1:D51"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numbers" dataDxfId="37"/>
-    <tableColumn id="2" name="Male" dataDxfId="36"/>
-    <tableColumn id="3" name="Female" dataDxfId="35"/>
-    <tableColumn id="4" name="Last Name" dataDxfId="34"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table410131521" displayName="Table410131521" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="39">
-  <autoFilter ref="A1:D51"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numbers" dataDxfId="11"/>
-    <tableColumn id="2" name="Male" dataDxfId="10"/>
-    <tableColumn id="3" name="Female" dataDxfId="9"/>
-    <tableColumn id="4" name="Last Name" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table410131524" displayName="Table410131524" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="33">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table412" displayName="Table412" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="42">
   <autoFilter ref="A1:D51"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numbers" dataDxfId="7"/>
@@ -2462,14 +3959,79 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table410131519" displayName="Table410131519" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="32">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table410" displayName="Table410" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="41">
+  <autoFilter ref="A1:D51"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numbers" dataDxfId="40"/>
+    <tableColumn id="2" name="Male" dataDxfId="39"/>
+    <tableColumn id="3" name="Female" dataDxfId="38"/>
+    <tableColumn id="4" name="Last Name" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table41013" displayName="Table41013" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="36">
   <autoFilter ref="A1:D51"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numbers" dataDxfId="3"/>
     <tableColumn id="2" name="Male" dataDxfId="2"/>
     <tableColumn id="3" name="Female" dataDxfId="1"/>
     <tableColumn id="4" name="Last Name" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table4101315" displayName="Table4101315" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="35">
+  <autoFilter ref="A1:D51"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numbers" dataDxfId="34"/>
+    <tableColumn id="2" name="Male" dataDxfId="33"/>
+    <tableColumn id="3" name="Female" dataDxfId="32"/>
+    <tableColumn id="4" name="Last Name" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table410131521" displayName="Table410131521" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="30">
+  <autoFilter ref="A1:D51"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numbers" dataDxfId="29"/>
+    <tableColumn id="2" name="Male" dataDxfId="28"/>
+    <tableColumn id="3" name="Female" dataDxfId="27"/>
+    <tableColumn id="4" name="Last Name" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table410131524" displayName="Table410131524" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="25">
+  <autoFilter ref="A1:D51"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numbers" dataDxfId="24"/>
+    <tableColumn id="2" name="Male" dataDxfId="23"/>
+    <tableColumn id="3" name="Female" dataDxfId="22"/>
+    <tableColumn id="4" name="Last Name" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table410131519" displayName="Table410131519" ref="A1:D51" totalsRowShown="0" tableBorderDxfId="20">
+  <autoFilter ref="A1:D51"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numbers" dataDxfId="19"/>
+    <tableColumn id="2" name="Male" dataDxfId="18"/>
+    <tableColumn id="3" name="Female" dataDxfId="17"/>
+    <tableColumn id="4" name="Last Name" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2730,7 +4292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2740,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,14 +5239,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="B2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3825,6 +5387,9 @@
       <c r="C10" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="D10" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3836,6 +5401,9 @@
       <c r="C11" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="D11" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -3847,6 +5415,9 @@
       <c r="C12" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="D12" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3858,7 +5429,9 @@
       <c r="C13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3870,7 +5443,9 @@
       <c r="C14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3882,7 +5457,9 @@
       <c r="C15" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3894,7 +5471,9 @@
       <c r="C16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3906,6 +5485,9 @@
       <c r="C17" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="D17" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -3917,6 +5499,9 @@
       <c r="C18" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="D18" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3928,6 +5513,9 @@
       <c r="C19" s="8" t="s">
         <v>108</v>
       </c>
+      <c r="D19" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3939,7 +5527,9 @@
       <c r="C20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -3951,7 +5541,9 @@
       <c r="C21" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -3963,7 +5555,9 @@
       <c r="C22" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -3975,7 +5569,9 @@
       <c r="C23" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -3987,7 +5583,9 @@
       <c r="C24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -3999,7 +5597,9 @@
       <c r="C25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -4011,7 +5611,9 @@
       <c r="C26" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -4023,199 +5625,345 @@
       <c r="C27" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>597</v>
+      </c>
       <c r="C28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
+      <c r="B29" t="s">
+        <v>598</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>681</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4230,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,6 +6154,9 @@
       <c r="C12" s="8" t="s">
         <v>152</v>
       </c>
+      <c r="D12" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -4417,7 +6168,9 @@
       <c r="C13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -4429,7 +6182,9 @@
       <c r="C14" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -4441,7 +6196,9 @@
       <c r="C15" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -4453,7 +6210,9 @@
       <c r="C16" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -4465,6 +6224,9 @@
       <c r="C17" s="8" t="s">
         <v>157</v>
       </c>
+      <c r="D17" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -4476,261 +6238,471 @@
       <c r="C18" s="8" t="s">
         <v>158</v>
       </c>
+      <c r="D18" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>689</v>
+      </c>
       <c r="C19" s="8" t="s">
         <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="1"/>
+      <c r="B20" t="s">
+        <v>690</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
+      <c r="B21" t="s">
+        <v>691</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
+      <c r="B22" t="s">
+        <v>692</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="1"/>
+      <c r="B23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
+      <c r="B24" t="s">
+        <v>694</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="1"/>
+      <c r="B25" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="1"/>
+      <c r="B27" t="s">
+        <v>716</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
+      <c r="B28" t="s">
+        <v>717</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
+      <c r="B29" t="s">
+        <v>718</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>748</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4745,16 +6717,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4977,7 +6949,9 @@
       <c r="C16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -4986,7 +6960,12 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -4995,7 +6974,12 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="D18" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -5004,7 +6988,12 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D19" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -5013,8 +7002,12 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -5023,8 +7016,12 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -5033,8 +7030,12 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -5043,8 +7044,12 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -5053,8 +7058,12 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -5063,8 +7072,12 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -5073,8 +7086,12 @@
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -5083,8 +7100,12 @@
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -5093,8 +7114,12 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -5103,184 +7128,320 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C32" t="s">
+        <v>858</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C38" t="s">
+        <v>864</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C39" t="s">
+        <v>865</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C40" t="s">
+        <v>866</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C41" t="s">
+        <v>867</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C42" t="s">
+        <v>868</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C45" t="s">
+        <v>871</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="C46" t="s">
+        <v>872</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C47" t="s">
+        <v>873</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="C48" t="s">
+        <v>875</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="C49" t="s">
+        <v>874</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>836</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5295,12 +7456,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5535,7 +7697,9 @@
       <c r="B17" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>911</v>
+      </c>
       <c r="D17" t="s">
         <v>215</v>
       </c>
@@ -5547,162 +7711,256 @@
       <c r="B18" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="B19" t="s">
+        <v>878</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="B20" t="s">
+        <v>879</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>914</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="B21" t="s">
+        <v>880</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>915</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="B22" t="s">
+        <v>881</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>916</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="B23" t="s">
+        <v>882</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>917</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="B24" t="s">
+        <v>883</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>918</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="B25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>919</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>920</v>
+      </c>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="B27" t="s">
+        <v>886</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>921</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="B28" t="s">
+        <v>887</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>926</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="B29" t="s">
+        <v>888</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>922</v>
+      </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>923</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>924</v>
+      </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>925</v>
+      </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>927</v>
+      </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>928</v>
+      </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>929</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>930</v>
+      </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>931</v>
+      </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>932</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>898</v>
+      </c>
       <c r="C39" s="8"/>
       <c r="D39" s="1"/>
     </row>
@@ -5710,7 +7968,9 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>899</v>
+      </c>
       <c r="C40" s="8"/>
       <c r="D40" s="1"/>
     </row>
@@ -5718,7 +7978,9 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>900</v>
+      </c>
       <c r="C41" s="8"/>
       <c r="D41" s="1"/>
     </row>
@@ -5726,7 +7988,9 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>901</v>
+      </c>
       <c r="C42" s="8"/>
       <c r="D42" s="1"/>
     </row>
@@ -5734,7 +7998,9 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>902</v>
+      </c>
       <c r="C43" s="8"/>
       <c r="D43" s="1"/>
     </row>
@@ -5742,7 +8008,9 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>903</v>
+      </c>
       <c r="C44" s="8"/>
       <c r="D44" s="1"/>
     </row>
@@ -5750,7 +8018,9 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>904</v>
+      </c>
       <c r="C45" s="8"/>
       <c r="D45" s="1"/>
     </row>
@@ -5758,7 +8028,9 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>905</v>
+      </c>
       <c r="C46" s="8"/>
       <c r="D46" s="1"/>
     </row>
@@ -5766,7 +8038,9 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>906</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="1"/>
     </row>
@@ -5774,7 +8048,9 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>907</v>
+      </c>
       <c r="C48" s="8"/>
       <c r="D48" s="1"/>
     </row>
@@ -5782,7 +8058,9 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>908</v>
+      </c>
       <c r="C49" s="8"/>
       <c r="D49" s="1"/>
     </row>
@@ -5790,7 +8068,9 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>909</v>
+      </c>
       <c r="C50" s="8"/>
       <c r="D50" s="1"/>
     </row>
@@ -5798,7 +8078,9 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>910</v>
+      </c>
       <c r="C51" s="8"/>
       <c r="D51" s="1"/>
     </row>
@@ -5816,7 +8098,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D51"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6359,7 +8641,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D51"/>
+      <selection activeCell="B27" sqref="B27:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,360 +8667,701 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="B3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="B4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="B5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="B6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="B7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="B8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="B10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="B11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="B12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="B17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="B18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="B19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="1"/>
+      <c r="B20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
+      <c r="B21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="1"/>
+      <c r="B23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
+      <c r="B24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="1"/>
+      <c r="B25" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="1"/>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="1"/>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="1"/>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="1"/>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="1"/>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="1"/>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="1"/>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="1"/>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="1"/>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="1"/>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="1"/>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="1"/>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="1"/>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="1"/>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>637</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6753,8 +9376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6913,6 +9536,9 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>933</v>
+      </c>
       <c r="C14" s="8" t="s">
         <v>240</v>
       </c>
@@ -6922,206 +9548,330 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="B15" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>954</v>
+      </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="B16" t="s">
+        <v>935</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>937</v>
+      </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="B17" t="s">
+        <v>936</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="B18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="B19" t="s">
+        <v>938</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="B20" t="s">
+        <v>939</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>938</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="B21" t="s">
+        <v>940</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>958</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="B22" t="s">
+        <v>941</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>959</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="B23" t="s">
+        <v>942</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>960</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="B24" t="s">
+        <v>940</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>961</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="B25" t="s">
+        <v>943</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>963</v>
+      </c>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="B27" t="s">
+        <v>945</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>964</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="B28" t="s">
+        <v>946</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>953</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="B29" t="s">
+        <v>947</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>965</v>
+      </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>941</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>966</v>
+      </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>967</v>
+      </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>935</v>
+      </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>973</v>
+      </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>984</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>985</v>
+      </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>986</v>
+      </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>987</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>988</v>
+      </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>989</v>
+      </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>990</v>
+      </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>974</v>
+      </c>
       <c r="C42" s="8"/>
       <c r="D42" s="1"/>
     </row>
@@ -7129,7 +9879,9 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>975</v>
+      </c>
       <c r="C43" s="8"/>
       <c r="D43" s="1"/>
     </row>
@@ -7137,7 +9889,9 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>976</v>
+      </c>
       <c r="C44" s="8"/>
       <c r="D44" s="1"/>
     </row>
@@ -7145,7 +9899,9 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>977</v>
+      </c>
       <c r="C45" s="8"/>
       <c r="D45" s="1"/>
     </row>
@@ -7153,7 +9909,9 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>978</v>
+      </c>
       <c r="C46" s="8"/>
       <c r="D46" s="1"/>
     </row>
@@ -7161,7 +9919,9 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>979</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="1"/>
     </row>
@@ -7169,7 +9929,9 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>980</v>
+      </c>
       <c r="C48" s="8"/>
       <c r="D48" s="1"/>
     </row>
@@ -7177,7 +9939,9 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>981</v>
+      </c>
       <c r="C49" s="8"/>
       <c r="D49" s="1"/>
     </row>
@@ -7185,7 +9949,9 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>982</v>
+      </c>
       <c r="C50" s="8"/>
       <c r="D50" s="1"/>
     </row>
@@ -7193,7 +9959,9 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>983</v>
+      </c>
       <c r="C51" s="8"/>
       <c r="D51" s="1"/>
     </row>
@@ -7210,13 +9978,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7243,6 +10013,9 @@
       <c r="C2" s="8" t="s">
         <v>307</v>
       </c>
+      <c r="D2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -7254,6 +10027,9 @@
       <c r="C3" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="D3" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -7265,6 +10041,9 @@
       <c r="C4" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="D4" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -7276,6 +10055,9 @@
       <c r="C5" s="8" t="s">
         <v>310</v>
       </c>
+      <c r="D5" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7287,6 +10069,9 @@
       <c r="C6" s="8" t="s">
         <v>311</v>
       </c>
+      <c r="D6" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -7298,6 +10083,9 @@
       <c r="C7" s="8" t="s">
         <v>312</v>
       </c>
+      <c r="D7" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -7309,6 +10097,9 @@
       <c r="C8" s="8" t="s">
         <v>313</v>
       </c>
+      <c r="D8" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -7320,6 +10111,9 @@
       <c r="C9" s="8" t="s">
         <v>314</v>
       </c>
+      <c r="D9" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -7331,6 +10125,9 @@
       <c r="C10" s="8" t="s">
         <v>315</v>
       </c>
+      <c r="D10" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -7342,6 +10139,9 @@
       <c r="C11" s="8" t="s">
         <v>316</v>
       </c>
+      <c r="D11" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -7353,6 +10153,9 @@
       <c r="C12" s="8" t="s">
         <v>317</v>
       </c>
+      <c r="D12" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -7364,7 +10167,9 @@
       <c r="C13" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -7373,287 +10178,530 @@
       <c r="B14" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="B17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D17" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="B18" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="B19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D19" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="1"/>
+      <c r="B20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
+      <c r="B21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
+      <c r="B22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="1"/>
+      <c r="B23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
+      <c r="B24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="1"/>
+      <c r="B25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="1"/>
+      <c r="B27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
+      <c r="B28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
+      <c r="B29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
+      <c r="B33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>582</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7672,7 +10720,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0513E81-B023-4E89-A95D-9764F6B8EE84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CA6681-8AD5-4B9E-A336-5680EDACEED9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
